--- a/backend/Data/agrivision_data.xlsx
+++ b/backend/Data/agrivision_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadhi Safeer\OneDrive\Documents\GitHub\Agrihub_Dashboard\backend\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D6571-B4E3-45F5-8EA0-733A25A23DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2892" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,106 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>camera_number</t>
+  </si>
+  <si>
+    <t>plant_id</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>disease_status</t>
+  </si>
+  <si>
+    <t>health_status</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>fully_nutritional</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>k_deficient</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>p_deficient</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>Downy_mildew_on_lettuce</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>n_deficient</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>Powdery_mildew_on_lettuce</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>Viral</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +436,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>46025</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>46026</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0.44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0.48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0.52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0.64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>46032</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>0.85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/Data/agrivision_data.xlsx
+++ b/backend/Data/agrivision_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadhi Safeer\OneDrive\Documents\GitHub\Agrihub_Dashboard\backend\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDE1656-574F-4274-A22E-FD4034237445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC9285-6AFF-40F7-92AE-A15887E446FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>date</t>
   </si>
@@ -121,6 +121,123 @@
   </si>
   <si>
     <t>P028</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>Septoria_Blight_on_lettuce</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>Wilt_and_leaf_blight_on_lettuce</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>P051</t>
+  </si>
+  <si>
+    <t>P052</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>P054</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>P061</t>
+  </si>
+  <si>
+    <t>P062</t>
+  </si>
+  <si>
+    <t>P063</t>
+  </si>
+  <si>
+    <t>P064</t>
+  </si>
+  <si>
+    <t>P065</t>
   </si>
 </sst>
 </file>
@@ -464,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>46037</v>
       </c>
@@ -539,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>46037</v>
       </c>
@@ -568,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>46037</v>
       </c>
@@ -597,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>46038</v>
       </c>
@@ -626,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>46038</v>
       </c>
@@ -655,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>46038</v>
       </c>
@@ -684,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>46039</v>
       </c>
@@ -713,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>46039</v>
       </c>
@@ -742,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>46039</v>
       </c>
@@ -771,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>46040</v>
       </c>
@@ -800,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>46040</v>
       </c>
@@ -829,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>46040</v>
       </c>
@@ -858,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>46041</v>
       </c>
@@ -887,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>46041</v>
       </c>
@@ -914,6 +1031,1079 @@
       </c>
       <c r="I15" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>46041</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.38263888888888886</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.37986111111111109</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.38472222222222224</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>46046</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>46046</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>46047</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>46047</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.38263888888888886</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>46049</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>46049</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>46050</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>46050</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>46051</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>46051</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>46054</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>46055</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>46056</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>46057</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>46058</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>46059</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>46060</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46061</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>46062</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>46064</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>46065</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>46066</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
